--- a/ig/fix-issue-#152/all-profiles.xlsx
+++ b/ig/fix-issue-#152/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17466" uniqueCount="1263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17466" uniqueCount="1262">
   <si>
     <t>Property</t>
   </si>
@@ -3539,43 +3539,40 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J34-CategorieOrganisation-ROR/FHIR/JDV-J34-CategorieOrganisation-ROR</t>
   </si>
   <si>
-    <t>Task.input:temporaliteAcceuil</t>
-  </si>
-  <si>
-    <t>temporaliteAcceuil</t>
+    <t>Task.input:temporaliteAccueil</t>
+  </si>
+  <si>
+    <t>temporaliteAccueil</t>
   </si>
   <si>
     <t>Permet de définir la fréquence d'accueil lors d'une prise en charge en ESMS</t>
   </si>
   <si>
-    <t>Task.input:temporaliteAcceuil.id</t>
-  </si>
-  <si>
-    <t>Task.input:temporaliteAcceuil.extension</t>
-  </si>
-  <si>
-    <t>Task.input:temporaliteAcceuil.modifierExtension</t>
-  </si>
-  <si>
-    <t>Task.input:temporaliteAcceuil.type</t>
-  </si>
-  <si>
-    <t>Task.input:temporaliteAcceuil.type.id</t>
-  </si>
-  <si>
-    <t>Task.input:temporaliteAcceuil.type.extension</t>
-  </si>
-  <si>
-    <t>Task.input:temporaliteAcceuil.type.coding</t>
-  </si>
-  <si>
-    <t>Task.input:temporaliteAcceuil.type.text</t>
-  </si>
-  <si>
-    <t>temporaliteAccueil</t>
-  </si>
-  <si>
-    <t>Task.input:temporaliteAcceuil.value[x]</t>
+    <t>Task.input:temporaliteAccueil.id</t>
+  </si>
+  <si>
+    <t>Task.input:temporaliteAccueil.extension</t>
+  </si>
+  <si>
+    <t>Task.input:temporaliteAccueil.modifierExtension</t>
+  </si>
+  <si>
+    <t>Task.input:temporaliteAccueil.type</t>
+  </si>
+  <si>
+    <t>Task.input:temporaliteAccueil.type.id</t>
+  </si>
+  <si>
+    <t>Task.input:temporaliteAccueil.type.extension</t>
+  </si>
+  <si>
+    <t>Task.input:temporaliteAccueil.type.coding</t>
+  </si>
+  <si>
+    <t>Task.input:temporaliteAccueil.type.text</t>
+  </si>
+  <si>
+    <t>Task.input:temporaliteAccueil.value[x]</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J30-TemporaliteAccueil-ROR/FHIR/JDV-J30-TemporaliteAccueil-ROR</t>
@@ -50558,7 +50555,7 @@
       </c>
       <c r="R433" s="2"/>
       <c r="S433" t="s" s="2">
-        <v>1143</v>
+        <v>1133</v>
       </c>
       <c r="T433" t="s" s="2">
         <v>74</v>
@@ -50620,7 +50617,7 @@
         <v>813</v>
       </c>
       <c r="B434" t="s" s="2">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C434" t="s" s="2">
         <v>1014</v>
@@ -50683,7 +50680,7 @@
       </c>
       <c r="Z434" s="2"/>
       <c r="AA434" t="s" s="2">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="AB434" t="s" s="2">
         <v>74</v>
@@ -50721,13 +50718,13 @@
         <v>813</v>
       </c>
       <c r="B435" t="s" s="2">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C435" t="s" s="2">
         <v>997</v>
       </c>
       <c r="D435" t="s" s="2">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="E435" t="s" s="2">
         <v>998</v>
@@ -50752,7 +50749,7 @@
         <v>136</v>
       </c>
       <c r="M435" t="s" s="2">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="N435" t="s" s="2">
         <v>1001</v>
@@ -50828,7 +50825,7 @@
         <v>813</v>
       </c>
       <c r="B436" t="s" s="2">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="C436" t="s" s="2">
         <v>1004</v>
@@ -50931,7 +50928,7 @@
         <v>813</v>
       </c>
       <c r="B437" t="s" s="2">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C437" t="s" s="2">
         <v>1005</v>
@@ -51036,7 +51033,7 @@
         <v>813</v>
       </c>
       <c r="B438" t="s" s="2">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="C438" t="s" s="2">
         <v>1006</v>
@@ -51143,7 +51140,7 @@
         <v>813</v>
       </c>
       <c r="B439" t="s" s="2">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="C439" t="s" s="2">
         <v>1007</v>
@@ -51250,7 +51247,7 @@
         <v>813</v>
       </c>
       <c r="B440" t="s" s="2">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C440" t="s" s="2">
         <v>1026</v>
@@ -51353,7 +51350,7 @@
         <v>813</v>
       </c>
       <c r="B441" t="s" s="2">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C441" t="s" s="2">
         <v>1028</v>
@@ -51458,7 +51455,7 @@
         <v>813</v>
       </c>
       <c r="B442" t="s" s="2">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C442" t="s" s="2">
         <v>1030</v>
@@ -51565,7 +51562,7 @@
         <v>813</v>
       </c>
       <c r="B443" t="s" s="2">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C443" t="s" s="2">
         <v>1037</v>
@@ -51610,7 +51607,7 @@
       </c>
       <c r="R443" s="2"/>
       <c r="S443" t="s" s="2">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="T443" t="s" s="2">
         <v>74</v>
@@ -51672,7 +51669,7 @@
         <v>813</v>
       </c>
       <c r="B444" t="s" s="2">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C444" t="s" s="2">
         <v>1014</v>
@@ -51775,13 +51772,13 @@
         <v>813</v>
       </c>
       <c r="B445" t="s" s="2">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C445" t="s" s="2">
         <v>997</v>
       </c>
       <c r="D445" t="s" s="2">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="E445" t="s" s="2">
         <v>998</v>
@@ -51806,7 +51803,7 @@
         <v>136</v>
       </c>
       <c r="M445" t="s" s="2">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="N445" t="s" s="2">
         <v>1001</v>
@@ -51882,7 +51879,7 @@
         <v>813</v>
       </c>
       <c r="B446" t="s" s="2">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C446" t="s" s="2">
         <v>1004</v>
@@ -51985,7 +51982,7 @@
         <v>813</v>
       </c>
       <c r="B447" t="s" s="2">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C447" t="s" s="2">
         <v>1005</v>
@@ -52090,7 +52087,7 @@
         <v>813</v>
       </c>
       <c r="B448" t="s" s="2">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C448" t="s" s="2">
         <v>1006</v>
@@ -52197,7 +52194,7 @@
         <v>813</v>
       </c>
       <c r="B449" t="s" s="2">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C449" t="s" s="2">
         <v>1007</v>
@@ -52304,7 +52301,7 @@
         <v>813</v>
       </c>
       <c r="B450" t="s" s="2">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C450" t="s" s="2">
         <v>1026</v>
@@ -52407,7 +52404,7 @@
         <v>813</v>
       </c>
       <c r="B451" t="s" s="2">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C451" t="s" s="2">
         <v>1028</v>
@@ -52512,7 +52509,7 @@
         <v>813</v>
       </c>
       <c r="B452" t="s" s="2">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C452" t="s" s="2">
         <v>1030</v>
@@ -52619,7 +52616,7 @@
         <v>813</v>
       </c>
       <c r="B453" t="s" s="2">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C453" t="s" s="2">
         <v>1037</v>
@@ -52664,7 +52661,7 @@
       </c>
       <c r="R453" s="2"/>
       <c r="S453" t="s" s="2">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="T453" t="s" s="2">
         <v>74</v>
@@ -52726,7 +52723,7 @@
         <v>813</v>
       </c>
       <c r="B454" t="s" s="2">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C454" t="s" s="2">
         <v>1014</v>
@@ -52789,7 +52786,7 @@
       </c>
       <c r="Z454" s="2"/>
       <c r="AA454" t="s" s="2">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="AB454" t="s" s="2">
         <v>74</v>
@@ -52827,13 +52824,13 @@
         <v>813</v>
       </c>
       <c r="B455" t="s" s="2">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C455" t="s" s="2">
         <v>997</v>
       </c>
       <c r="D455" t="s" s="2">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="E455" t="s" s="2">
         <v>998</v>
@@ -52858,7 +52855,7 @@
         <v>136</v>
       </c>
       <c r="M455" t="s" s="2">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="N455" t="s" s="2">
         <v>1001</v>
@@ -52934,7 +52931,7 @@
         <v>813</v>
       </c>
       <c r="B456" t="s" s="2">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C456" t="s" s="2">
         <v>1004</v>
@@ -53037,7 +53034,7 @@
         <v>813</v>
       </c>
       <c r="B457" t="s" s="2">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C457" t="s" s="2">
         <v>1005</v>
@@ -53142,7 +53139,7 @@
         <v>813</v>
       </c>
       <c r="B458" t="s" s="2">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C458" t="s" s="2">
         <v>1006</v>
@@ -53249,7 +53246,7 @@
         <v>813</v>
       </c>
       <c r="B459" t="s" s="2">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C459" t="s" s="2">
         <v>1007</v>
@@ -53356,7 +53353,7 @@
         <v>813</v>
       </c>
       <c r="B460" t="s" s="2">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C460" t="s" s="2">
         <v>1026</v>
@@ -53459,7 +53456,7 @@
         <v>813</v>
       </c>
       <c r="B461" t="s" s="2">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C461" t="s" s="2">
         <v>1028</v>
@@ -53564,7 +53561,7 @@
         <v>813</v>
       </c>
       <c r="B462" t="s" s="2">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C462" t="s" s="2">
         <v>1030</v>
@@ -53671,7 +53668,7 @@
         <v>813</v>
       </c>
       <c r="B463" t="s" s="2">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C463" t="s" s="2">
         <v>1037</v>
@@ -53716,7 +53713,7 @@
       </c>
       <c r="R463" s="2"/>
       <c r="S463" t="s" s="2">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="T463" t="s" s="2">
         <v>74</v>
@@ -53778,7 +53775,7 @@
         <v>813</v>
       </c>
       <c r="B464" t="s" s="2">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C464" t="s" s="2">
         <v>1014</v>
@@ -53841,7 +53838,7 @@
       </c>
       <c r="Z464" s="2"/>
       <c r="AA464" t="s" s="2">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="AB464" t="s" s="2">
         <v>74</v>
@@ -53879,13 +53876,13 @@
         <v>813</v>
       </c>
       <c r="B465" t="s" s="2">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C465" t="s" s="2">
         <v>997</v>
       </c>
       <c r="D465" t="s" s="2">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="E465" t="s" s="2">
         <v>998</v>
@@ -53910,7 +53907,7 @@
         <v>136</v>
       </c>
       <c r="M465" t="s" s="2">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="N465" t="s" s="2">
         <v>1001</v>
@@ -53986,7 +53983,7 @@
         <v>813</v>
       </c>
       <c r="B466" t="s" s="2">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C466" t="s" s="2">
         <v>1004</v>
@@ -54089,7 +54086,7 @@
         <v>813</v>
       </c>
       <c r="B467" t="s" s="2">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C467" t="s" s="2">
         <v>1005</v>
@@ -54194,7 +54191,7 @@
         <v>813</v>
       </c>
       <c r="B468" t="s" s="2">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C468" t="s" s="2">
         <v>1006</v>
@@ -54301,7 +54298,7 @@
         <v>813</v>
       </c>
       <c r="B469" t="s" s="2">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C469" t="s" s="2">
         <v>1007</v>
@@ -54408,7 +54405,7 @@
         <v>813</v>
       </c>
       <c r="B470" t="s" s="2">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C470" t="s" s="2">
         <v>1026</v>
@@ -54511,7 +54508,7 @@
         <v>813</v>
       </c>
       <c r="B471" t="s" s="2">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C471" t="s" s="2">
         <v>1028</v>
@@ -54616,7 +54613,7 @@
         <v>813</v>
       </c>
       <c r="B472" t="s" s="2">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C472" t="s" s="2">
         <v>1030</v>
@@ -54723,7 +54720,7 @@
         <v>813</v>
       </c>
       <c r="B473" t="s" s="2">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C473" t="s" s="2">
         <v>1037</v>
@@ -54768,7 +54765,7 @@
       </c>
       <c r="R473" s="2"/>
       <c r="S473" t="s" s="2">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="T473" t="s" s="2">
         <v>74</v>
@@ -54830,7 +54827,7 @@
         <v>813</v>
       </c>
       <c r="B474" t="s" s="2">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C474" t="s" s="2">
         <v>1014</v>
@@ -54933,13 +54930,13 @@
         <v>813</v>
       </c>
       <c r="B475" t="s" s="2">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C475" t="s" s="2">
         <v>997</v>
       </c>
       <c r="D475" t="s" s="2">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="E475" t="s" s="2">
         <v>998</v>
@@ -54964,7 +54961,7 @@
         <v>136</v>
       </c>
       <c r="M475" t="s" s="2">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="N475" t="s" s="2">
         <v>1001</v>
@@ -55040,7 +55037,7 @@
         <v>813</v>
       </c>
       <c r="B476" t="s" s="2">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C476" t="s" s="2">
         <v>1004</v>
@@ -55143,7 +55140,7 @@
         <v>813</v>
       </c>
       <c r="B477" t="s" s="2">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C477" t="s" s="2">
         <v>1005</v>
@@ -55248,7 +55245,7 @@
         <v>813</v>
       </c>
       <c r="B478" t="s" s="2">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C478" t="s" s="2">
         <v>1006</v>
@@ -55355,7 +55352,7 @@
         <v>813</v>
       </c>
       <c r="B479" t="s" s="2">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C479" t="s" s="2">
         <v>1007</v>
@@ -55462,7 +55459,7 @@
         <v>813</v>
       </c>
       <c r="B480" t="s" s="2">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C480" t="s" s="2">
         <v>1026</v>
@@ -55565,7 +55562,7 @@
         <v>813</v>
       </c>
       <c r="B481" t="s" s="2">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C481" t="s" s="2">
         <v>1028</v>
@@ -55670,7 +55667,7 @@
         <v>813</v>
       </c>
       <c r="B482" t="s" s="2">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C482" t="s" s="2">
         <v>1030</v>
@@ -55777,7 +55774,7 @@
         <v>813</v>
       </c>
       <c r="B483" t="s" s="2">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C483" t="s" s="2">
         <v>1037</v>
@@ -55822,7 +55819,7 @@
       </c>
       <c r="R483" s="2"/>
       <c r="S483" t="s" s="2">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="T483" t="s" s="2">
         <v>74</v>
@@ -55884,7 +55881,7 @@
         <v>813</v>
       </c>
       <c r="B484" t="s" s="2">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C484" t="s" s="2">
         <v>1014</v>
@@ -55913,7 +55910,7 @@
         <v>356</v>
       </c>
       <c r="M484" t="s" s="2">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="N484" t="s" s="2">
         <v>1017</v>
@@ -55947,7 +55944,7 @@
       </c>
       <c r="Z484" s="2"/>
       <c r="AA484" t="s" s="2">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="AB484" t="s" s="2">
         <v>74</v>
@@ -55985,13 +55982,13 @@
         <v>813</v>
       </c>
       <c r="B485" t="s" s="2">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C485" t="s" s="2">
         <v>997</v>
       </c>
       <c r="D485" t="s" s="2">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="E485" t="s" s="2">
         <v>998</v>
@@ -56016,7 +56013,7 @@
         <v>136</v>
       </c>
       <c r="M485" t="s" s="2">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="N485" t="s" s="2">
         <v>1001</v>
@@ -56092,7 +56089,7 @@
         <v>813</v>
       </c>
       <c r="B486" t="s" s="2">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C486" t="s" s="2">
         <v>1004</v>
@@ -56195,7 +56192,7 @@
         <v>813</v>
       </c>
       <c r="B487" t="s" s="2">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C487" t="s" s="2">
         <v>1005</v>
@@ -56300,7 +56297,7 @@
         <v>813</v>
       </c>
       <c r="B488" t="s" s="2">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C488" t="s" s="2">
         <v>1006</v>
@@ -56407,7 +56404,7 @@
         <v>813</v>
       </c>
       <c r="B489" t="s" s="2">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C489" t="s" s="2">
         <v>1007</v>
@@ -56514,7 +56511,7 @@
         <v>813</v>
       </c>
       <c r="B490" t="s" s="2">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C490" t="s" s="2">
         <v>1026</v>
@@ -56617,7 +56614,7 @@
         <v>813</v>
       </c>
       <c r="B491" t="s" s="2">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C491" t="s" s="2">
         <v>1028</v>
@@ -56722,7 +56719,7 @@
         <v>813</v>
       </c>
       <c r="B492" t="s" s="2">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C492" t="s" s="2">
         <v>1030</v>
@@ -56829,7 +56826,7 @@
         <v>813</v>
       </c>
       <c r="B493" t="s" s="2">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C493" t="s" s="2">
         <v>1037</v>
@@ -56874,7 +56871,7 @@
       </c>
       <c r="R493" s="2"/>
       <c r="S493" t="s" s="2">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="T493" t="s" s="2">
         <v>74</v>
@@ -56936,7 +56933,7 @@
         <v>813</v>
       </c>
       <c r="B494" t="s" s="2">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C494" t="s" s="2">
         <v>1014</v>
@@ -56999,7 +56996,7 @@
       </c>
       <c r="Z494" s="2"/>
       <c r="AA494" t="s" s="2">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="AB494" t="s" s="2">
         <v>74</v>
@@ -57037,13 +57034,13 @@
         <v>813</v>
       </c>
       <c r="B495" t="s" s="2">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C495" t="s" s="2">
         <v>997</v>
       </c>
       <c r="D495" t="s" s="2">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="E495" t="s" s="2">
         <v>998</v>
@@ -57068,7 +57065,7 @@
         <v>136</v>
       </c>
       <c r="M495" t="s" s="2">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="N495" t="s" s="2">
         <v>1001</v>
@@ -57144,7 +57141,7 @@
         <v>813</v>
       </c>
       <c r="B496" t="s" s="2">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C496" t="s" s="2">
         <v>1004</v>
@@ -57247,7 +57244,7 @@
         <v>813</v>
       </c>
       <c r="B497" t="s" s="2">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C497" t="s" s="2">
         <v>1005</v>
@@ -57352,7 +57349,7 @@
         <v>813</v>
       </c>
       <c r="B498" t="s" s="2">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C498" t="s" s="2">
         <v>1006</v>
@@ -57459,7 +57456,7 @@
         <v>813</v>
       </c>
       <c r="B499" t="s" s="2">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C499" t="s" s="2">
         <v>1007</v>
@@ -57566,7 +57563,7 @@
         <v>813</v>
       </c>
       <c r="B500" t="s" s="2">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C500" t="s" s="2">
         <v>1026</v>
@@ -57669,7 +57666,7 @@
         <v>813</v>
       </c>
       <c r="B501" t="s" s="2">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C501" t="s" s="2">
         <v>1028</v>
@@ -57774,7 +57771,7 @@
         <v>813</v>
       </c>
       <c r="B502" t="s" s="2">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="C502" t="s" s="2">
         <v>1030</v>
@@ -57881,7 +57878,7 @@
         <v>813</v>
       </c>
       <c r="B503" t="s" s="2">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C503" t="s" s="2">
         <v>1037</v>
@@ -57926,7 +57923,7 @@
       </c>
       <c r="R503" s="2"/>
       <c r="S503" t="s" s="2">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="T503" t="s" s="2">
         <v>74</v>
@@ -57988,7 +57985,7 @@
         <v>813</v>
       </c>
       <c r="B504" t="s" s="2">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C504" t="s" s="2">
         <v>1014</v>
@@ -58091,13 +58088,13 @@
         <v>813</v>
       </c>
       <c r="B505" t="s" s="2">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C505" t="s" s="2">
         <v>997</v>
       </c>
       <c r="D505" t="s" s="2">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="E505" t="s" s="2">
         <v>998</v>
@@ -58122,7 +58119,7 @@
         <v>136</v>
       </c>
       <c r="M505" t="s" s="2">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="N505" t="s" s="2">
         <v>1001</v>
@@ -58198,7 +58195,7 @@
         <v>813</v>
       </c>
       <c r="B506" t="s" s="2">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="C506" t="s" s="2">
         <v>1004</v>
@@ -58301,7 +58298,7 @@
         <v>813</v>
       </c>
       <c r="B507" t="s" s="2">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C507" t="s" s="2">
         <v>1005</v>
@@ -58406,7 +58403,7 @@
         <v>813</v>
       </c>
       <c r="B508" t="s" s="2">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C508" t="s" s="2">
         <v>1006</v>
@@ -58513,7 +58510,7 @@
         <v>813</v>
       </c>
       <c r="B509" t="s" s="2">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C509" t="s" s="2">
         <v>1007</v>
@@ -58620,7 +58617,7 @@
         <v>813</v>
       </c>
       <c r="B510" t="s" s="2">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C510" t="s" s="2">
         <v>1026</v>
@@ -58723,7 +58720,7 @@
         <v>813</v>
       </c>
       <c r="B511" t="s" s="2">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C511" t="s" s="2">
         <v>1028</v>
@@ -58828,7 +58825,7 @@
         <v>813</v>
       </c>
       <c r="B512" t="s" s="2">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C512" t="s" s="2">
         <v>1030</v>
@@ -58935,7 +58932,7 @@
         <v>813</v>
       </c>
       <c r="B513" t="s" s="2">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C513" t="s" s="2">
         <v>1037</v>
@@ -58980,7 +58977,7 @@
       </c>
       <c r="R513" s="2"/>
       <c r="S513" t="s" s="2">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="T513" t="s" s="2">
         <v>74</v>
@@ -59042,7 +59039,7 @@
         <v>813</v>
       </c>
       <c r="B514" t="s" s="2">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C514" t="s" s="2">
         <v>1014</v>
@@ -59145,10 +59142,10 @@
         <v>813</v>
       </c>
       <c r="B515" t="s" s="2">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C515" t="s" s="2">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D515" s="2"/>
       <c r="E515" t="s" s="2">
@@ -59174,14 +59171,14 @@
         <v>136</v>
       </c>
       <c r="M515" t="s" s="2">
+        <v>1247</v>
+      </c>
+      <c r="N515" t="s" s="2">
         <v>1248</v>
-      </c>
-      <c r="N515" t="s" s="2">
-        <v>1249</v>
       </c>
       <c r="O515" s="2"/>
       <c r="P515" t="s" s="2">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="Q515" t="s" s="2">
         <v>74</v>
@@ -59230,7 +59227,7 @@
         <v>74</v>
       </c>
       <c r="AG515" t="s" s="2">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="AH515" t="s" s="2">
         <v>75</v>
@@ -59250,10 +59247,10 @@
         <v>813</v>
       </c>
       <c r="B516" t="s" s="2">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="C516" t="s" s="2">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D516" s="2"/>
       <c r="E516" t="s" s="2">
@@ -59353,10 +59350,10 @@
         <v>813</v>
       </c>
       <c r="B517" t="s" s="2">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C517" t="s" s="2">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="D517" s="2"/>
       <c r="E517" t="s" s="2">
@@ -59458,10 +59455,10 @@
         <v>813</v>
       </c>
       <c r="B518" t="s" s="2">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C518" t="s" s="2">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="D518" s="2"/>
       <c r="E518" t="s" s="2">
@@ -59565,10 +59562,10 @@
         <v>813</v>
       </c>
       <c r="B519" t="s" s="2">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C519" t="s" s="2">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D519" s="2"/>
       <c r="E519" t="s" s="2">
@@ -59594,16 +59591,16 @@
         <v>356</v>
       </c>
       <c r="M519" t="s" s="2">
+        <v>1254</v>
+      </c>
+      <c r="N519" t="s" s="2">
         <v>1255</v>
-      </c>
-      <c r="N519" t="s" s="2">
-        <v>1256</v>
       </c>
       <c r="O519" t="s" s="2">
         <v>359</v>
       </c>
       <c r="P519" t="s" s="2">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="Q519" t="s" s="2">
         <v>74</v>
@@ -59631,7 +59628,7 @@
         <v>317</v>
       </c>
       <c r="Z519" t="s" s="2">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="AA519" t="s" s="2">
         <v>74</v>
@@ -59652,7 +59649,7 @@
         <v>74</v>
       </c>
       <c r="AG519" t="s" s="2">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="AH519" t="s" s="2">
         <v>82</v>
@@ -59672,10 +59669,10 @@
         <v>813</v>
       </c>
       <c r="B520" t="s" s="2">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C520" t="s" s="2">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="D520" s="2"/>
       <c r="E520" t="s" s="2">
@@ -59701,14 +59698,14 @@
         <v>1015</v>
       </c>
       <c r="M520" t="s" s="2">
+        <v>1259</v>
+      </c>
+      <c r="N520" t="s" s="2">
         <v>1260</v>
-      </c>
-      <c r="N520" t="s" s="2">
-        <v>1261</v>
       </c>
       <c r="O520" s="2"/>
       <c r="P520" t="s" s="2">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="Q520" t="s" s="2">
         <v>74</v>
@@ -59757,7 +59754,7 @@
         <v>74</v>
       </c>
       <c r="AG520" t="s" s="2">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="AH520" t="s" s="2">
         <v>82</v>
